--- a/documentation/codebook.xlsx
+++ b/documentation/codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\World Bank\SSG database\paper\figures_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\World Bank\SSGD v2.0 GitHub\Social-Sustainability-Global-Database-v2.0\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C56CDB-7DEF-4084-A84E-D157D18BFA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AA96D6-B28F-4BDE-ADB6-751AC10D0446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39A305B4-F82F-4338-8C8F-A8E3E187CC91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{39A305B4-F82F-4338-8C8F-A8E3E187CC91}"/>
   </bookViews>
   <sheets>
     <sheet name="Social Inclusion" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="356">
   <si>
     <t>Dimension</t>
   </si>
@@ -1129,21 +1129,6 @@
     <t>AB, AF</t>
   </si>
   <si>
-    <r>
-      <t>Fatalities due to violence</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
     <t>fata</t>
   </si>
   <si>
@@ -1160,21 +1145,6 @@
   </si>
   <si>
     <t>ACLED: Number of events related to battles, explossions/remove violence, and violence against civilians.</t>
-  </si>
-  <si>
-    <r>
-      <t>Homicide index</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
   </si>
   <si>
     <t>hom</t>
@@ -1396,16 +1366,10 @@
     <t>Voice and accountability index</t>
   </si>
   <si>
-    <t>ESG: Voice and accountability index</t>
-  </si>
-  <si>
     <t>Economic and social rights performance score</t>
   </si>
   <si>
     <t>econsocrights</t>
-  </si>
-  <si>
-    <t>ESG: Economic and social rights performance score</t>
   </si>
   <si>
     <r>
@@ -1703,6 +1667,15 @@
   </si>
   <si>
     <t>Women, Business and the Law (WBL) and Strength of Legal Rights Index</t>
+  </si>
+  <si>
+    <t>Fatalities due to violence</t>
+  </si>
+  <si>
+    <t>WGI: Voice and accountability index</t>
+  </si>
+  <si>
+    <t>WGI: Economic and social rights performance score</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1829,12 +1802,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1849,6 +1816,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2166,7 +2145,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6076DEB1-9DD4-4009-8CB4-9AD827C47535}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H28"/>
     </sheetView>
   </sheetViews>
@@ -2184,42 +2163,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2239,8 +2218,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="22"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2258,8 +2237,8 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="22"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
@@ -2277,8 +2256,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="22"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
@@ -2296,8 +2275,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="22"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
@@ -2315,8 +2294,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2336,8 +2315,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="6" t="s">
         <v>35</v>
       </c>
@@ -2355,8 +2334,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
@@ -2374,8 +2353,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="6" t="s">
         <v>43</v>
       </c>
@@ -2393,8 +2372,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="360" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="6" t="s">
         <v>47</v>
       </c>
@@ -2412,8 +2391,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="22" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2433,8 +2412,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="5" t="s">
         <v>57</v>
       </c>
@@ -2452,8 +2431,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="22"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="5" t="s">
         <v>61</v>
       </c>
@@ -2471,8 +2450,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="22"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="5" t="s">
         <v>64</v>
       </c>
@@ -2490,8 +2469,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="22"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="5" t="s">
         <v>68</v>
       </c>
@@ -2509,9 +2488,9 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18" t="s">
-        <v>356</v>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>72</v>
@@ -2530,8 +2509,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="6" t="s">
         <v>75</v>
       </c>
@@ -2549,8 +2528,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="6" t="s">
         <v>77</v>
       </c>
@@ -2568,8 +2547,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="6" t="s">
         <v>79</v>
       </c>
@@ -2587,8 +2566,8 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="6" t="s">
         <v>81</v>
       </c>
@@ -2606,8 +2585,8 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="6" t="s">
         <v>83</v>
       </c>
@@ -2625,8 +2604,8 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
       <c r="D25" s="6" t="s">
         <v>85</v>
       </c>
@@ -2644,8 +2623,8 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="6" t="s">
         <v>87</v>
       </c>
@@ -2663,8 +2642,8 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="6" t="s">
         <v>89</v>
       </c>
@@ -2682,8 +2661,8 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="9" t="s">
         <v>91</v>
       </c>
@@ -2723,7 +2702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EAA36F-FB67-40E1-BF91-53944F3B0839}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2739,42 +2718,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -2794,8 +2773,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="6" t="s">
         <v>101</v>
       </c>
@@ -2813,8 +2792,8 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="6" t="s">
         <v>105</v>
       </c>
@@ -2832,8 +2811,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="6" t="s">
         <v>109</v>
       </c>
@@ -2851,8 +2830,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="6" t="s">
         <v>113</v>
       </c>
@@ -2870,8 +2849,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="6" t="s">
         <v>117</v>
       </c>
@@ -2889,8 +2868,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="6" t="s">
         <v>121</v>
       </c>
@@ -2908,8 +2887,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="6" t="s">
         <v>125</v>
       </c>
@@ -2927,8 +2906,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="6" t="s">
         <v>129</v>
       </c>
@@ -2946,8 +2925,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="6" t="s">
         <v>133</v>
       </c>
@@ -2965,8 +2944,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="6" t="s">
         <v>137</v>
       </c>
@@ -2984,8 +2963,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="6" t="s">
         <v>140</v>
       </c>
@@ -3003,8 +2982,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="6" t="s">
         <v>145</v>
       </c>
@@ -3022,8 +3001,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="6" t="s">
         <v>150</v>
       </c>
@@ -3041,8 +3020,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="285" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="6" t="s">
         <v>155</v>
       </c>
@@ -3060,8 +3039,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="9" t="s">
         <v>160</v>
       </c>
@@ -3099,7 +3078,7 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3116,42 +3095,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="2:8" ht="300" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>163</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3171,8 +3150,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="6" t="s">
         <v>169</v>
       </c>
@@ -3190,8 +3169,8 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="6" t="s">
         <v>174</v>
       </c>
@@ -3209,8 +3188,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="6" t="s">
         <v>179</v>
       </c>
@@ -3228,8 +3207,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="6" t="s">
         <v>184</v>
       </c>
@@ -3247,8 +3226,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="6" t="s">
         <v>188</v>
       </c>
@@ -3266,8 +3245,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="360" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="6" t="s">
         <v>192</v>
       </c>
@@ -3285,8 +3264,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="6" t="s">
         <v>196</v>
       </c>
@@ -3304,8 +3283,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="6" t="s">
         <v>200</v>
       </c>
@@ -3323,8 +3302,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="6" t="s">
         <v>205</v>
       </c>
@@ -3342,8 +3321,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="255" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="6" t="s">
         <v>210</v>
       </c>
@@ -3361,8 +3340,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="6" t="s">
         <v>215</v>
       </c>
@@ -3380,8 +3359,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="6" t="s">
         <v>220</v>
       </c>
@@ -3399,8 +3378,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="330" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="6" t="s">
         <v>225</v>
       </c>
@@ -3418,8 +3397,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="6" t="s">
         <v>229</v>
       </c>
@@ -3437,8 +3416,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="6" t="s">
         <v>234</v>
       </c>
@@ -3456,8 +3435,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" s="6" t="s">
         <v>239</v>
       </c>
@@ -3475,60 +3454,60 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="H21" s="8" t="s">
+    </row>
+    <row r="22" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="6" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="G23" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>252</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3551,7 +3530,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03345100-042D-4FEF-ADD8-004BAB1EB1EC}">
   <dimension ref="B2:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3567,147 +3548,147 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="E4" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="H4" s="15" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="E5" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="G5" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
       <c r="D6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="240" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G8" s="7" t="s">
+    </row>
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>139</v>
@@ -3717,395 +3698,399 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18" t="s">
+      <c r="E11" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="G11" s="7" t="s">
+    </row>
+    <row r="12" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="G13" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="G14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="F15" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G15" s="16" t="s">
+      <c r="G16" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="6" t="s">
+      <c r="H16" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E16" s="6" t="s">
+    </row>
+    <row r="17" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="G17" s="7" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="6" t="s">
+      <c r="H17" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="6" t="s">
+      <c r="H18" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E19" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="6" t="s">
+      <c r="H19" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E20" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="6" t="s">
+      <c r="H20" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E21" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="6" t="s">
+      <c r="H21" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="E21" s="6" t="s">
+    </row>
+    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="G22" s="7" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="6" t="s">
+      <c r="H22" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E22" s="6" t="s">
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="E23" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="F23" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H23" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="6" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="H24" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F25" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="H25" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F26" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H26" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="6" t="s">
+      <c r="E27" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F27" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="H27" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B28" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="9" t="s">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B29" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B30" s="23" t="s">
         <v>350</v>
       </c>
-      <c r="F27" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="17"/>
-    </row>
-    <row r="29" spans="2:8" ht="182.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="17"/>
-    </row>
-    <row r="30" spans="2:8" ht="122.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="17"/>
-    </row>
-    <row r="31" spans="2:8" ht="137.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="17"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="14">
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B4:B27"/>
     <mergeCell ref="C4:C10"/>
